--- a/data/cah_project/CAH_XtalPred.xlsx
+++ b/data/cah_project/CAH_XtalPred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aed3d806ed7068fe/Documents/GitHub/TARA-thiolases/data/cah_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{1416A25E-6D2E-47FB-B27F-EC68CADF4BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BB45520E-A5C6-4970-A73E-731E0736CFA0}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{1416A25E-6D2E-47FB-B27F-EC68CADF4BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D1D91AB-9073-4DC8-A1D0-81101762930D}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="600" windowWidth="11810" windowHeight="10200" xr2:uid="{3663D728-A008-4AB6-9E6C-AB870C62F42E}"/>
   </bookViews>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>webdb/1594748471.43587</t>
   </si>
   <si>
-    <t>new (no H tag)</t>
-  </si>
-  <si>
     <t>webdb/1594752869.18092</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>Target id</t>
   </si>
   <si>
-    <t>(link to target details)</t>
-  </si>
-  <si>
     <t>EP-class</t>
   </si>
   <si>
@@ -120,6 +114,9 @@
   </si>
   <si>
     <t>Azorhizobium_caulinodans_ORS_571_4NQ3_A</t>
+  </si>
+  <si>
+    <t>new (no His tag)</t>
   </si>
 </sst>
 </file>
@@ -479,62 +476,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C0B007-5890-4CE6-A05B-94E64599C624}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="71.6328125" customWidth="1"/>
     <col min="3" max="3" width="8.26953125" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="18.7265625" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="9" max="9" width="20.90625" customWidth="1"/>
+    <col min="10" max="10" width="24.54296875" customWidth="1"/>
+    <col min="11" max="11" width="25.81640625" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>374</v>
+      </c>
+      <c r="E2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F2">
+        <v>32.74</v>
+      </c>
+      <c r="G2">
+        <v>6.15</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2">
+        <v>0.09</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -542,324 +584,324 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="E3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F3">
-        <v>32.74</v>
+        <v>30.7</v>
       </c>
       <c r="G3">
-        <v>6.15</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>20</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E4">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="F4">
-        <v>30.7</v>
+        <v>42.49</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>5.61</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="E5">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="F5">
-        <v>42.49</v>
+        <v>34.75</v>
       </c>
       <c r="G5">
-        <v>5.61</v>
+        <v>5.41</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J5">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>390</v>
       </c>
       <c r="E6">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="F6">
-        <v>34.75</v>
+        <v>31.16</v>
       </c>
       <c r="G6">
-        <v>5.41</v>
+        <v>6.67</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6">
         <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="E7">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="F7">
-        <v>31.16</v>
+        <v>27.25</v>
       </c>
       <c r="G7">
-        <v>6.67</v>
+        <v>5.24</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>0.13</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E8">
-        <v>0.01</v>
+        <v>-0.09</v>
       </c>
       <c r="F8">
-        <v>27.25</v>
+        <v>31.25</v>
       </c>
       <c r="G8">
-        <v>5.24</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H8">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E9">
-        <v>-0.09</v>
+        <v>0.02</v>
       </c>
       <c r="F9">
-        <v>31.25</v>
+        <v>48.09</v>
       </c>
       <c r="G9">
-        <v>5.0999999999999996</v>
+        <v>5.74</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E10">
-        <v>0.02</v>
+        <v>-0.12</v>
       </c>
       <c r="F10">
-        <v>48.09</v>
+        <v>34.31</v>
       </c>
       <c r="G10">
-        <v>5.74</v>
+        <v>4.95</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J10">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M10">
         <v>0.1</v>
@@ -867,114 +909,73 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="E11">
-        <v>-0.12</v>
+        <v>0.25</v>
       </c>
       <c r="F11">
-        <v>34.31</v>
+        <v>34.67</v>
       </c>
       <c r="G11">
-        <v>4.95</v>
+        <v>5.66</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J11">
-        <v>47</v>
-      </c>
-      <c r="K11" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>356</v>
-      </c>
-      <c r="E12">
-        <v>0.25</v>
-      </c>
-      <c r="F12">
-        <v>34.67</v>
-      </c>
-      <c r="G12">
-        <v>5.66</v>
-      </c>
-      <c r="H12">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="I12">
-        <v>13</v>
-      </c>
-      <c r="J12">
-        <v>44</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12">
-        <v>0.06</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
         <v>1</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="http://ffas.godziklab.org/XtalPred-cgi/result.pl?dir=webdb/1594752869.18092/1" xr:uid="{72A50B8D-5508-4657-8F99-625C5172D1AD}"/>
-    <hyperlink ref="A4" r:id="rId2" display="http://ffas.godziklab.org/XtalPred-cgi/result.pl?dir=webdb/1594752869.18092/0" xr:uid="{3EE82370-E494-4B24-887E-936AA86DD0CE}"/>
-    <hyperlink ref="A5" r:id="rId3" display="http://ffas.godziklab.org/XtalPred-cgi/result.pl?dir=webdb/1594752869.18092/2" xr:uid="{1A553EB9-BD6E-418C-BD7B-BE1E84913787}"/>
-    <hyperlink ref="A6" r:id="rId4" display="http://ffas.godziklab.org/XtalPred-cgi/result.pl?dir=webdb/1594752869.18092/6" xr:uid="{A772116B-C477-48CC-BF5E-702806B2BB2E}"/>
-    <hyperlink ref="A7" r:id="rId5" display="http://ffas.godziklab.org/XtalPred-cgi/result.pl?dir=webdb/1594752869.18092/3" xr:uid="{B1144A08-0A9A-4C54-864F-FB31AE783980}"/>
-    <hyperlink ref="A8" r:id="rId6" display="http://ffas.godziklab.org/XtalPred-cgi/result.pl?dir=webdb/1594752869.18092/7" xr:uid="{CAF75B2D-A0C0-4E60-8AF6-FB46A7044746}"/>
-    <hyperlink ref="A9" r:id="rId7" display="http://ffas.godziklab.org/XtalPred-cgi/result.pl?dir=webdb/1594752869.18092/5" xr:uid="{906116A1-ACB9-49DF-8AFC-89545188E144}"/>
-    <hyperlink ref="A10" r:id="rId8" display="http://ffas.godziklab.org/XtalPred-cgi/result.pl?dir=webdb/1594752869.18092/8" xr:uid="{743DA79E-D981-4735-9B66-F06B0DE54ED0}"/>
-    <hyperlink ref="A11" r:id="rId9" display="http://ffas.godziklab.org/XtalPred-cgi/result.pl?dir=webdb/1594752869.18092/9" xr:uid="{40769D82-D029-4173-9DC0-F02BBED182C0}"/>
-    <hyperlink ref="A12" r:id="rId10" display="http://ffas.godziklab.org/XtalPred-cgi/result.pl?dir=webdb/1594752869.18092/4" xr:uid="{79F5368F-C12C-45EC-ABFF-8C387031836E}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://ffas.godziklab.org/XtalPred-cgi/result.pl?dir=webdb/1594752869.18092/1" xr:uid="{72A50B8D-5508-4657-8F99-625C5172D1AD}"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://ffas.godziklab.org/XtalPred-cgi/result.pl?dir=webdb/1594752869.18092/0" xr:uid="{3EE82370-E494-4B24-887E-936AA86DD0CE}"/>
+    <hyperlink ref="A4" r:id="rId3" display="http://ffas.godziklab.org/XtalPred-cgi/result.pl?dir=webdb/1594752869.18092/2" xr:uid="{1A553EB9-BD6E-418C-BD7B-BE1E84913787}"/>
+    <hyperlink ref="A5" r:id="rId4" display="http://ffas.godziklab.org/XtalPred-cgi/result.pl?dir=webdb/1594752869.18092/6" xr:uid="{A772116B-C477-48CC-BF5E-702806B2BB2E}"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://ffas.godziklab.org/XtalPred-cgi/result.pl?dir=webdb/1594752869.18092/3" xr:uid="{B1144A08-0A9A-4C54-864F-FB31AE783980}"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://ffas.godziklab.org/XtalPred-cgi/result.pl?dir=webdb/1594752869.18092/7" xr:uid="{CAF75B2D-A0C0-4E60-8AF6-FB46A7044746}"/>
+    <hyperlink ref="A8" r:id="rId7" display="http://ffas.godziklab.org/XtalPred-cgi/result.pl?dir=webdb/1594752869.18092/5" xr:uid="{906116A1-ACB9-49DF-8AFC-89545188E144}"/>
+    <hyperlink ref="A9" r:id="rId8" display="http://ffas.godziklab.org/XtalPred-cgi/result.pl?dir=webdb/1594752869.18092/8" xr:uid="{743DA79E-D981-4735-9B66-F06B0DE54ED0}"/>
+    <hyperlink ref="A10" r:id="rId9" display="http://ffas.godziklab.org/XtalPred-cgi/result.pl?dir=webdb/1594752869.18092/9" xr:uid="{40769D82-D029-4173-9DC0-F02BBED182C0}"/>
+    <hyperlink ref="A11" r:id="rId10" display="http://ffas.godziklab.org/XtalPred-cgi/result.pl?dir=webdb/1594752869.18092/4" xr:uid="{79F5368F-C12C-45EC-ABFF-8C387031836E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
